--- a/yangle/woniuboss脚本/woniuboss/data/woniuboss4_gui/woniuboss4_gui.xlsx
+++ b/yangle/woniuboss脚本/woniuboss/data/woniuboss4_gui/woniuboss4_gui.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="stu_manage" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="teach_manage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="135">
   <si>
     <t>用例编号</t>
   </si>
@@ -1144,6 +1144,128 @@
   </si>
   <si>
     <t>test do all homework pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=全部
+name=李</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query week exam pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC003
+phase=第一阶段
+week=第一阶段-第一周 JavaSE编程基础
+file_path=F:\tmp\score.xls</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test upload exam file pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test entry sigle exam pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=81
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test import sigle phase exam pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test import all phase exam pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+file_path=F:\tmp\phase_import.xls</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orientation=全部
+class_name=全部
+phase=全部
+name=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query composite result pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>region=全部
+teacher=全部
+orientation=全部
+s_time=2020-01-01
+e_time=2020-06-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query course pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-21
+e_time=2020-04-22
+teacher=全部
+classroom=教室四
+class_num=WNCDC004
+course=全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test add course fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test modify course fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_schedule_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_schedule_002</t>
+  </si>
+  <si>
+    <t>course_schedule_003</t>
+  </si>
+  <si>
+    <t>level=全部
+class_name=全部
+name=
+no=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query interview info pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result=全部
+comment=pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test do technical interview fail</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1295,7 +1417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1360,6 +1482,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2409,16 +2540,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
     <col min="6" max="6" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2506,6 +2637,72 @@
       </c>
       <c r="F6" s="22" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2517,13 +2714,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="D6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/yangle/woniuboss脚本/woniuboss/data/woniuboss4_gui/woniuboss4_gui.xlsx
+++ b/yangle/woniuboss脚本/woniuboss/data/woniuboss4_gui/woniuboss4_gui.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="300">
   <si>
     <t>用例编号</t>
   </si>
@@ -939,18 +939,6 @@
 DBPASSWORD=root
 DBNAME=woniuboss4.0
 username=WNCD011
-password=woniu123</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BROWSER=Chrome
-HOSTNAME=yangle4
-AURL=WoniuBoss4.0
-PORT=8080
-DBUSER=root
-DBPASSWORD=root
-DBNAME=woniuboss4.0
-username=WNCD006
 password=woniu123</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1035,94 +1023,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">李娟
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>stu_tel=15896562563
-status=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">全部
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fee=18800
-person=
-connect_tel=
-school=
-diploma=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">本科
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>major=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">通信工程
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id_number=
-age=23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>test modify student info fail</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>level=良</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1144,11 +1044,6 @@
   </si>
   <si>
     <t>test do all homework pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_name=全部
-name=李</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1222,41 +1117,5442 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>test add course fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test modify course fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_schedule_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_schedule_002</t>
+  </si>
+  <si>
+    <t>course_schedule_003</t>
+  </si>
+  <si>
+    <t>level=全部
+class_name=全部
+name=
+no=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query interview info pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test do technical interview fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=全部
+id=
+s_time=2019-01-01
+e_time=2021-01-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query teacher duty pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test modify duty pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test refer to duty fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test add duty logs pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test add duty logs fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>who=jack
+date=2020.a4-22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=09:30
+e_time=18:30
+hour=7小时
+way=申请调休
+logs=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query overtime application pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test undo overtime application pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=全部
+code=
+s_time=2020-01-01
+e_time=2020-07-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=全部
+code=7
+s_time=2020-01-01
+e_time=2020-07-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query overtime application fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=全部
+status=全部
+id=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query my approval pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher=全部
+way=全部
+s_time=2020-01-01
+e_time=2020-07-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query overtime summary pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_student_info_002</t>
+  </si>
+  <si>
+    <r>
+      <t>orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公共
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>class=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习
+name=吴迪</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query student info fail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_student_info_003</t>
+  </si>
+  <si>
+    <r>
+      <t>orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>class=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习
+name=李</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query student info pass</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_student_info_004</t>
+  </si>
+  <si>
+    <r>
+      <t>orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>class=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习
+name=李%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query student info fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_student_info_005</t>
+  </si>
+  <si>
+    <r>
+      <t>orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>class=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未开班
+name=</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test modify student info pass</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15896562563
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test modify student info fail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15896562563
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15896562563
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟李娟李娟李娟李娟李娟李娟李娟李娟李娟李娟李娟李娟李娟李娟李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15896562563
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15896562563
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=158965625631
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=1589656256
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=158965625 6
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=156252536a6
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=156252536#6
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙坚孙坚孙坚孙坚孙坚孙坚孙坚孙坚孙坚孙坚孙坚孙坚孙坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+connect_tel=18569524525
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=185695245251
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=1856952452
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=1856952452%
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=185695245 2
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=185695245221856952452218569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学西安科技大学西安科技大学西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程通信工程通信工程通信工程通信工程通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=6102211995121303250
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=61022119951213032
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=61022119951213032%
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=61022119951213032a
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=6102211995121303 5
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325610221199512130325
+age=23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=-1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=101</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=2a</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=2%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李娟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stu_tel=15625253656
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在校学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fee=18800
+person=
+connect_tel=18569524522
+school=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+diploma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>major=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通信工程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_number=610221199512130325
+age=25.5</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=优</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test do homework pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test do morning exam fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=全部
+name=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=全部
+name=李</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=全部
+name=李%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query week exam fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+name=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC004
+name=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=全部
+name=李劲松</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=全部
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test entry sigle exam fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=全部
+week=
+score=80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=8d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=8%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score= 8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test entry sigle exam pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test upload exam file fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=-1
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test import sigle phase exam fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=101
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=7a
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=7%
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score= 7
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=0
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=80.5
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=100
+phase=第一阶段
+comment=pass，继续努力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+score=
+phase=第一阶段
+comment=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC003
+phase=第一阶段
+week=第一阶段-第一周 JavaSE编程基础
+file_path=F:\tmp\picture.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+file_path=F:\tmp\picture.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test import all phase exam fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>region=全部
+teacher=全部
+orientation=全部
+s_time=2020%
+e_time=2020-06-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test query course fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>region=全部
+teacher=全部
+orientation=全部
+s_time=2020.01.01
+e_time=2020.07.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test add course pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>s_time=2020-04-21
 e_time=2020-04-22
 teacher=全部
 classroom=教室四
-class_num=WNCDC004
+class_num=WNCDC003
+course=第一阶段-第一周-JavaSE编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-22
+teacher=jack_01
+classroom=教室四
+class_num=WNCDC002
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-24
+teacher=jack_01
+classroom=全部
+class_num=WNCDC002
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-24
+teacher=jack_01
+classroom=教室五
+class_num=WNCDC002
 course=全部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test add course fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test modify course fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_schedule_001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_schedule_002</t>
-  </si>
-  <si>
-    <t>course_schedule_003</t>
+    <t>s_time=2020-04-23
+e_time=2020-04-24
+teacher=jack_01
+classroom=教室五
+class_num=全部
+course=全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-21
+e_time=2020-04-22
+teacher=jack_01
+classroom=教室五
+class_num=WNCDC003
+course=第一阶段-第一周-JavaSE编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-21
+e_time=2020-04-22
+teacher=jack_01
+classroom=教室四
+class_num=WNCDC002
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-21
+e_time=2020-04-22
+teacher=jack
+classroom=教室六
+class_num=WNCDC002
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-21
+e_time=2020-04-22
+teacher=jack
+classroom=教室四
+class_num=WNCDC001
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同时间同一教师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同时间同一班级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同时间同一教室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-21
+e_time=2020-04-22
+teacher=全部
+classroom=教室六
+class_num=WNCDC001
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-22
+teacher=jack_01
+classroom=教室六
+class_num=WNCDC001
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-24
+teacher=jack_01
+classroom=全部
+class_num=WNCDC001
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-24
+teacher=jack_01
+classroom=教室六
+class_num=全部
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-24
+teacher=jack_01
+classroom=教室六
+class_num=WNCDC001
+course=全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-01
+e_time=2020-05-01
+teacher=jack_01
+classroom=教室六
+class_num=WNCDC002
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-01
+e_time=2020-05-01
+teacher=jack_01
+classroom=教室二
+class_num=WNCDC001
+course=第一阶段-第一周-Web前端与编程基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=良
+class_name=全部
+name=
+no=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=良
+class_name=WNCDC001
+name=
+no=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=全部
+class_name=全部
+name=齐天
+no=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>level=全部
 class_name=全部
 name=
+no=WNCD202004014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=全部
+class_name=全部
+name=%
 no=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test query interview info pass</t>
+    <t>test query interview info fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=全部
+class_name=全部
+name=
+no=%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=全部
+class_name=全部
+name=
+no=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result=优
+comment=pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test do technical interview pass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1265,7 +6561,185 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test do technical interview fail</t>
+    <t>result=良
+comment=%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=全部
+id=1%
+s_time=2019-01-01
+e_time=2021-01-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query teacher duty fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>who=jack
+date=2020.04-25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test refer to duty pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>who=全部
+date=2020.04-25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>who=jack
+date=全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=09:20
+e_time=18:30
+hour=7小时
+way=申请调休
+logs=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=09:30
+e_time=18:30
+hour=7小时
+way=全部
+logs=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=09:30
+e_time=18:30
+hour=7小时
+way=申请调休
+logs=%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person=全部
+date=2020-04-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test modify duty fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person=jack
+date=全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person=jack
+date=2020-04-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person=jack
+date=2020.04.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person=jack
+date=2020.04.2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=全部
+code=3%
+s_time=2020-01-01
+e_time=2020-07-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=全部
+code=3%
+s_time=2020%
+e_time=2020%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-03 8:00
+e_time=2020-04-03 18:00
+way=结算工资
+hours=7小时
+region=成都
+reason=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test add overtime application pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-03 
+e_time=2020-04-03 18:00
+way=结算工资
+hours=7小时
+region=成都
+reason=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test add overtime application fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-03 18:00
+e_time=2020-04-03 12:00
+way=结算工资
+hours=7小时
+region=成都
+reason=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-03 8:00
+e_time=2020-04-03 18:00
+way=全部
+hours=7小时
+region=成都
+reason=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-03 8:00
+e_time=2020-04-03 18:00
+way=结算工资
+hours=7小时
+region=全部
+reason=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-03 8:00
+e_time=2020-04-03 18:00
+way=结算工资
+hours=7小时
+region=成都
+reason=%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=
+e_time=2020-04-03 18:00
+way=结算工资
+hours=7小时
+region=成都
+reason=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020.04.03 8:00
+e_time=2020.04.03 18:00
+way=结算工资
+hours=7小时
+region=成都
+reason=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1417,7 +6891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1491,6 +6965,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1796,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1909,7 +7392,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -2540,16 +8023,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
     <col min="6" max="6" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2567,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
@@ -2577,132 +8060,963 @@
     </row>
     <row r="2" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.15">
+      <c r="D10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="153" x14ac:dyDescent="0.15">
+      <c r="D22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="153" x14ac:dyDescent="0.15">
+      <c r="D32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D33" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="152.25" x14ac:dyDescent="0.15">
+      <c r="D37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D40" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="153" x14ac:dyDescent="0.15">
+      <c r="D43" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D47" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
+      <c r="D49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D52" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="22" t="s">
+    </row>
+    <row r="53" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="22" t="s">
+    </row>
+    <row r="55" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="22" t="s">
+    <row r="56" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F61" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D63" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D64" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D65" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D66" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D67" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D69" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D70" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D71" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="F71" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="24" t="s">
+    </row>
+    <row r="72" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D72" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D73" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F73" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D74" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D75" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D76" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D77" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D78" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D79" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D80" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D81" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D82" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D83" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="23" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="F83" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="23" t="s">
+    <row r="84" spans="4:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D85" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F85" s="23" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D11" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2714,17 +9028,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="22" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2742,7 +9056,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
@@ -2752,66 +9066,709 @@
     </row>
     <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="D4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A5" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="D6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A7" s="23"/>
+      <c r="D7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A8" s="23"/>
+      <c r="D8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="D9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="D10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="D15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="D16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+      <c r="D17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="D18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
+      <c r="D19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="A20" s="23"/>
+      <c r="D20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="F32" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="24" t="s">
+    </row>
+    <row r="33" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D33" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D40" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D43" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="D6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>134</v>
+    </row>
+    <row r="44" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D47" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D52" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="D62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/yangle/woniuboss脚本/woniuboss/data/woniuboss4_gui/woniuboss4_gui.xlsx
+++ b/yangle/woniuboss脚本/woniuboss/data/woniuboss4_gui/woniuboss4_gui.xlsx
@@ -799,9 +799,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>second: modify password pass</t>
-  </si>
-  <si>
     <t>login_023</t>
   </si>
   <si>
@@ -6105,10 +6102,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>level=优</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test do homework pass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -6155,21 +6148,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>class_name=全部
-phase=第一阶段
-week=第一阶段-第一周 Web前端与编程基础
-score=80</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test entry sigle exam fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_name=WNCDC002
-phase=全部
-week=
-score=80</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -6462,15 +6441,6 @@
 e_time=2020-04-24
 teacher=jack_01
 classroom=教室六
-class_num=全部
-course=第一阶段-第一周-Web前端与编程基础</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_time=2020-04-23
-e_time=2020-04-24
-teacher=jack_01
-classroom=教室六
 class_num=WNCDC001
 course=全部</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6740,6 +6710,34 @@
 hours=7小时
 region=成都
 reason=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>second: modify password pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name=WNCDC002
+phase=第一阶段
+week=第一阶段-第一周 Web前端与编程基础
+score=80.0000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test entry sigle exam pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level=忧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_time=2020-04-23
+e_time=2020-04-24
+teacher=jack_01
+classroom=教室六
+class_num=全部
+course=全部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7279,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7320,7 +7318,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -7338,7 +7336,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
@@ -7356,7 +7354,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
@@ -7374,7 +7372,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -7392,7 +7390,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -7410,7 +7408,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>24</v>
@@ -7427,7 +7425,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>27</v>
@@ -7444,7 +7442,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7461,7 +7459,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>33</v>
@@ -7478,7 +7476,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -7495,7 +7493,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>39</v>
@@ -7512,7 +7510,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -7529,7 +7527,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>43</v>
@@ -7546,7 +7544,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -7563,7 +7561,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>46</v>
@@ -7580,7 +7578,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>48</v>
@@ -7597,7 +7595,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -7614,7 +7612,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>52</v>
@@ -7631,7 +7629,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -7648,7 +7646,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>56</v>
@@ -7665,13 +7663,13 @@
         <v>23</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="108" x14ac:dyDescent="0.15">
@@ -7682,336 +7680,336 @@
         <v>60</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>61</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="D40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="D42" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8025,8 +8023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8050,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
@@ -8060,963 +8058,963 @@
     </row>
     <row r="2" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
       <c r="D4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D8" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="152.25" x14ac:dyDescent="0.15">
       <c r="D10" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D12" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D13" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D14" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D15" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D16" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D17" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D18" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D19" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D21" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="153" x14ac:dyDescent="0.15">
       <c r="D22" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D23" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D24" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D25" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D26" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D27" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D28" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D29" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D30" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D31" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="4:6" ht="153" x14ac:dyDescent="0.15">
       <c r="D32" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D33" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D34" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D35" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D36" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="152.25" x14ac:dyDescent="0.15">
       <c r="D37" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D38" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D39" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D40" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D41" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D42" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="4:6" ht="153" x14ac:dyDescent="0.15">
       <c r="D43" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D44" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D45" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D46" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D47" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D48" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="140.25" x14ac:dyDescent="0.15">
       <c r="D49" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D50" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D51" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D52" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E52" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D53" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D54" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D55" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D56" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D57" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D58" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D59" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D60" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D61" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D62" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D63" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D64" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D65" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D66" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D67" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D68" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D69" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D70" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D71" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="72" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D72" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D73" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="23" t="s">
         <v>113</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D74" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D75" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D76" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D77" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D78" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D79" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D80" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D81" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D82" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D83" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="4:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D85" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E85" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -9030,8 +9028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9056,7 +9054,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
@@ -9066,709 +9064,709 @@
     </row>
     <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A4" s="23"/>
       <c r="D4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A6" s="23"/>
       <c r="D6" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A7" s="23"/>
       <c r="D7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A8" s="23"/>
       <c r="D8" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A9" s="23"/>
       <c r="D9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A10" s="23"/>
       <c r="D10" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A13" s="23"/>
       <c r="B13" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A15" s="23"/>
       <c r="D15" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A16" s="23"/>
       <c r="D16" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="A17" s="23"/>
       <c r="D17" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
       <c r="D18" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="D19" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
       <c r="D20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D21" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>126</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D22" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D23" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D24" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D25" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D26" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D27" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D28" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D29" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D30" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D31" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D32" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D33" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D34" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D35" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D36" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D37" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D38" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D39" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D40" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D41" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D42" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D43" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D44" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D45" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D46" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D47" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D48" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D49" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D50" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D51" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D52" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D53" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D54" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D55" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D56" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D57" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D58" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D59" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D60" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E60" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D61" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="120" x14ac:dyDescent="0.15">
       <c r="D62" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="23" t="s">
         <v>145</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
